--- a/Test protocol/Sprint_4/All Agencies/System Test protocol_Braille DP2_Sprint 4_ALL AGENCIES_.xlsx
+++ b/Test protocol/Sprint_4/All Agencies/System Test protocol_Braille DP2_Sprint 4_ALL AGENCIES_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" tabRatio="717" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" tabRatio="717" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sprint_4 Test cases_DK" sheetId="11" r:id="rId3"/>
     <sheet name="Sprint_4 Test cases_NO" sheetId="8" r:id="rId4"/>
     <sheet name="Sprint_4 Test cases_SE" sheetId="9" r:id="rId5"/>
+    <sheet name="Sprint_4 Test cases_NL" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc403991786" localSheetId="0">' Background and Preparation'!$A$3</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="112">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -1088,6 +1089,30 @@
 4.5:82: PASS
 4.5:84: PASS (except for skip to recto page)
 4.5:85: PASS (for changing margin contents only)</t>
+  </si>
+  <si>
+    <t>Davy Kager</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/ddc1fbb3595d7f445a2b9a19d5f375106ade4de9/Test%20data/Sprint_4/NL/pagination-test-1.xml</t>
+  </si>
+  <si>
+    <t>Only the very basic features have been tested, i.e. margins, header text (page numbers) and automatic page breaking. At the start of the sprint there were some issues, documented as comments in NL/pagination-test-1.xml. These look to have been fixed during the course of the sprint. TODO: for next sprint, test more advanced features.</t>
+  </si>
+  <si>
+    <t>Tested braille page number in page header.</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Not implemented in Dedicon's CSS yet. Add for next sprint?</t>
+  </si>
+  <si>
+    <t>Tested Restart job and Delete job with arbitrary file.</t>
+  </si>
+  <si>
+    <t>Tested 4.7:97, others need more specification at Dedicon plus implementation and testing in future sprint.</t>
   </si>
 </sst>
 </file>
@@ -2739,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -5364,4 +5389,891 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="64">
+        <v>42306</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="51"/>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="37.200000000000003" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="333.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="33"/>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="33"/>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="33"/>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="33"/>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="33"/>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
+      <c r="B46" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="33"/>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36"/>
+      <c r="B47" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="33"/>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="33"/>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="33"/>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="33"/>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="34"/>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+    </row>
+    <row r="55" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" ht="25.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="33"/>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="33"/>
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="36"/>
+      <c r="B63" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="33"/>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="36"/>
+      <c r="B64" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="33"/>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="33"/>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="36"/>
+      <c r="B66" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="33"/>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="34"/>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+    </row>
+    <row r="72" spans="1:3" s="3" customFormat="1" ht="49.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="31"/>
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A76" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="33"/>
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="36"/>
+      <c r="B78" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="33"/>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="36"/>
+      <c r="B79" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="33"/>
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="36"/>
+      <c r="B80" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="33"/>
+    </row>
+    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="36"/>
+      <c r="B81" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="33"/>
+    </row>
+    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="36"/>
+      <c r="B82" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="33"/>
+    </row>
+    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="34"/>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="34"/>
+    </row>
+    <row r="86" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+    </row>
+    <row r="87" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1" ht="48.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" s="3" customFormat="1" ht="286.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="31"/>
+    </row>
+    <row r="92" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A92" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="33"/>
+    </row>
+    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="36"/>
+      <c r="B94" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="33"/>
+    </row>
+    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="33"/>
+    </row>
+    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="36"/>
+      <c r="B96" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="33"/>
+    </row>
+    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="36"/>
+      <c r="B97" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="33"/>
+    </row>
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="36"/>
+      <c r="B98" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="33"/>
+    </row>
+    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="34"/>
+    </row>
+    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>